--- a/codebook/smarvus_codebook_250124.xlsx
+++ b/codebook/smarvus_codebook_250124.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarst\Documents\GitHub\2301\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA1C3DA-6556-4EF6-B700-48BCB8889EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E9F45-CB75-461D-A8AA-041FDDA51FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14730" yWindow="2505" windowWidth="22905" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6730" yWindow="0" windowWidth="19320" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -6732,7 +6732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6757,6 +6757,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6770,7 +6788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6798,19 +6816,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7048,68 +7071,68 @@
   </sheetPr>
   <dimension ref="A1:AA1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A473" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B490" sqref="B490"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
     <col min="7" max="7" width="91" style="9" customWidth="1"/>
-    <col min="8" max="8" width="63.85546875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="70.28515625" customWidth="1"/>
+    <col min="8" max="8" width="63.81640625" style="4" customWidth="1"/>
+    <col min="9" max="11" width="70.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>2115</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>1868</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>1869</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1"/>
@@ -7129,18 +7152,18 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
+    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -7158,21 +7181,21 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:27" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7219,7 +7242,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -7270,7 +7293,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -7321,7 +7344,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -7372,7 +7395,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -7423,7 +7446,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -7474,12 +7497,12 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -7530,7 +7553,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7581,7 +7604,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -7632,7 +7655,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -7683,12 +7706,12 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -7736,7 +7759,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -7785,7 +7808,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -7836,7 +7859,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -7884,7 +7907,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -7932,7 +7955,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -7980,7 +8003,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -8029,7 +8052,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -8078,12 +8101,12 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -8130,7 +8153,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -8179,7 +8202,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -8228,12 +8251,12 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -8282,12 +8305,12 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -8338,7 +8361,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
@@ -8389,7 +8412,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>95</v>
       </c>
@@ -8440,7 +8463,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
@@ -8491,7 +8514,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -8542,7 +8565,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -8593,7 +8616,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -8644,7 +8667,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
@@ -8695,7 +8718,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>109</v>
       </c>
@@ -8746,7 +8769,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>111</v>
       </c>
@@ -8797,7 +8820,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
@@ -8848,7 +8871,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -8899,7 +8922,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -8950,7 +8973,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>120</v>
       </c>
@@ -9001,7 +9024,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>122</v>
       </c>
@@ -9052,7 +9075,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>124</v>
       </c>
@@ -9103,7 +9126,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>126</v>
       </c>
@@ -9154,7 +9177,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
@@ -9205,7 +9228,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>130</v>
       </c>
@@ -9256,7 +9279,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>132</v>
       </c>
@@ -9307,7 +9330,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
@@ -9358,7 +9381,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>136</v>
       </c>
@@ -9409,7 +9432,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>138</v>
       </c>
@@ -9460,7 +9483,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -9511,7 +9534,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>144</v>
       </c>
@@ -9562,7 +9585,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>145</v>
       </c>
@@ -9613,7 +9636,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
@@ -9664,7 +9687,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>151</v>
       </c>
@@ -9715,7 +9738,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
@@ -9766,7 +9789,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
@@ -9817,7 +9840,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>157</v>
       </c>
@@ -9868,7 +9891,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>159</v>
       </c>
@@ -9919,7 +9942,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -9970,7 +9993,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
@@ -10021,7 +10044,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>165</v>
       </c>
@@ -10072,7 +10095,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>167</v>
       </c>
@@ -10123,7 +10146,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>170</v>
       </c>
@@ -10174,7 +10197,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>172</v>
       </c>
@@ -10225,7 +10248,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>174</v>
       </c>
@@ -10276,7 +10299,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>176</v>
       </c>
@@ -10327,7 +10350,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>179</v>
       </c>
@@ -10378,7 +10401,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>181</v>
       </c>
@@ -10429,7 +10452,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>183</v>
       </c>
@@ -10480,7 +10503,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>185</v>
       </c>
@@ -10531,7 +10554,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>187</v>
       </c>
@@ -10582,7 +10605,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>190</v>
       </c>
@@ -10633,7 +10656,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>192</v>
       </c>
@@ -10684,7 +10707,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>195</v>
       </c>
@@ -10735,7 +10758,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>196</v>
       </c>
@@ -10786,7 +10809,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>199</v>
       </c>
@@ -10837,7 +10860,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>201</v>
       </c>
@@ -10888,7 +10911,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>203</v>
       </c>
@@ -10939,7 +10962,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>205</v>
       </c>
@@ -10990,7 +11013,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>207</v>
       </c>
@@ -11041,7 +11064,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>209</v>
       </c>
@@ -11092,7 +11115,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>211</v>
       </c>
@@ -11143,7 +11166,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>213</v>
       </c>
@@ -11194,7 +11217,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>215</v>
       </c>
@@ -11245,7 +11268,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>217</v>
       </c>
@@ -11296,7 +11319,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>219</v>
       </c>
@@ -11347,7 +11370,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>221</v>
       </c>
@@ -11398,7 +11421,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>223</v>
       </c>
@@ -11449,7 +11472,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>225</v>
       </c>
@@ -11500,7 +11523,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>227</v>
       </c>
@@ -11551,7 +11574,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>229</v>
       </c>
@@ -11602,7 +11625,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>231</v>
       </c>
@@ -11653,7 +11676,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
@@ -11704,7 +11727,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>235</v>
       </c>
@@ -11755,7 +11778,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>238</v>
       </c>
@@ -11806,7 +11829,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>239</v>
       </c>
@@ -11857,7 +11880,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>242</v>
       </c>
@@ -11908,7 +11931,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>244</v>
       </c>
@@ -11959,7 +11982,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>246</v>
       </c>
@@ -12010,7 +12033,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -12061,7 +12084,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>250</v>
       </c>
@@ -12112,7 +12135,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>252</v>
       </c>
@@ -12163,7 +12186,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>254</v>
       </c>
@@ -12214,7 +12237,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>256</v>
       </c>
@@ -12265,7 +12288,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>258</v>
       </c>
@@ -12316,7 +12339,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>260</v>
       </c>
@@ -12367,7 +12390,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>263</v>
       </c>
@@ -12418,7 +12441,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>265</v>
       </c>
@@ -12469,7 +12492,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>267</v>
       </c>
@@ -12520,7 +12543,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>269</v>
       </c>
@@ -12571,7 +12594,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>271</v>
       </c>
@@ -12622,7 +12645,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>273</v>
       </c>
@@ -12673,7 +12696,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>275</v>
       </c>
@@ -12724,7 +12747,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>277</v>
       </c>
@@ -12775,7 +12798,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>279</v>
       </c>
@@ -12826,7 +12849,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>281</v>
       </c>
@@ -12877,7 +12900,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>284</v>
       </c>
@@ -12928,7 +12951,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>286</v>
       </c>
@@ -12979,7 +13002,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>289</v>
       </c>
@@ -13027,7 +13050,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>290</v>
       </c>
@@ -13075,7 +13098,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>295</v>
       </c>
@@ -13123,7 +13146,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>297</v>
       </c>
@@ -13171,7 +13194,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>300</v>
       </c>
@@ -13219,7 +13242,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>302</v>
       </c>
@@ -13267,7 +13290,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>304</v>
       </c>
@@ -13315,7 +13338,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>306</v>
       </c>
@@ -13363,7 +13386,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>308</v>
       </c>
@@ -13411,7 +13434,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>310</v>
       </c>
@@ -13459,7 +13482,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>312</v>
       </c>
@@ -13507,7 +13530,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>314</v>
       </c>
@@ -13555,7 +13578,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>316</v>
       </c>
@@ -13603,7 +13626,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>318</v>
       </c>
@@ -13651,7 +13674,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>320</v>
       </c>
@@ -13699,7 +13722,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>322</v>
       </c>
@@ -13747,7 +13770,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>324</v>
       </c>
@@ -13795,7 +13818,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>326</v>
       </c>
@@ -13843,7 +13866,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>328</v>
       </c>
@@ -13891,7 +13914,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>330</v>
       </c>
@@ -13939,7 +13962,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>332</v>
       </c>
@@ -13987,7 +14010,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>334</v>
       </c>
@@ -14035,7 +14058,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>337</v>
       </c>
@@ -14083,7 +14106,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>338</v>
       </c>
@@ -14131,7 +14154,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>343</v>
       </c>
@@ -14179,7 +14202,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>345</v>
       </c>
@@ -14227,7 +14250,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>347</v>
       </c>
@@ -14275,7 +14298,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>350</v>
       </c>
@@ -14323,7 +14346,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>352</v>
       </c>
@@ -14371,7 +14394,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>354</v>
       </c>
@@ -14419,7 +14442,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>357</v>
       </c>
@@ -14467,7 +14490,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>359</v>
       </c>
@@ -14515,7 +14538,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>361</v>
       </c>
@@ -14563,7 +14586,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>364</v>
       </c>
@@ -14611,7 +14634,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>366</v>
       </c>
@@ -14659,7 +14682,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>368</v>
       </c>
@@ -14707,7 +14730,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>370</v>
       </c>
@@ -14755,7 +14778,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>372</v>
       </c>
@@ -14803,7 +14826,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>374</v>
       </c>
@@ -14851,7 +14874,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>376</v>
       </c>
@@ -14899,7 +14922,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>378</v>
       </c>
@@ -14947,7 +14970,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>380</v>
       </c>
@@ -14995,7 +15018,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>382</v>
       </c>
@@ -15043,7 +15066,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>384</v>
       </c>
@@ -15091,7 +15114,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>386</v>
       </c>
@@ -15139,7 +15162,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>388</v>
       </c>
@@ -15187,7 +15210,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>390</v>
       </c>
@@ -15235,7 +15258,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>393</v>
       </c>
@@ -15283,7 +15306,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>394</v>
       </c>
@@ -15331,7 +15354,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>398</v>
       </c>
@@ -15379,7 +15402,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>400</v>
       </c>
@@ -15427,7 +15450,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>402</v>
       </c>
@@ -15475,7 +15498,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>404</v>
       </c>
@@ -15523,7 +15546,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>406</v>
       </c>
@@ -15571,7 +15594,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>408</v>
       </c>
@@ -15619,7 +15642,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>410</v>
       </c>
@@ -15667,7 +15690,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>413</v>
       </c>
@@ -15715,7 +15738,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>414</v>
       </c>
@@ -15763,7 +15786,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>419</v>
       </c>
@@ -15811,7 +15834,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>421</v>
       </c>
@@ -15859,7 +15882,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>423</v>
       </c>
@@ -15907,7 +15930,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>425</v>
       </c>
@@ -15955,7 +15978,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>428</v>
       </c>
@@ -16003,7 +16026,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>430</v>
       </c>
@@ -16051,7 +16074,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>432</v>
       </c>
@@ -16099,7 +16122,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>434</v>
       </c>
@@ -16147,7 +16170,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>436</v>
       </c>
@@ -16195,7 +16218,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>438</v>
       </c>
@@ -16243,7 +16266,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>440</v>
       </c>
@@ -16291,7 +16314,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>442</v>
       </c>
@@ -16339,7 +16362,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>444</v>
       </c>
@@ -16387,7 +16410,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>446</v>
       </c>
@@ -16435,7 +16458,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>448</v>
       </c>
@@ -16483,7 +16506,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>450</v>
       </c>
@@ -16531,7 +16554,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>452</v>
       </c>
@@ -16579,7 +16602,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>454</v>
       </c>
@@ -16627,7 +16650,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>456</v>
       </c>
@@ -16675,7 +16698,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>458</v>
       </c>
@@ -16723,7 +16746,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>460</v>
       </c>
@@ -16771,7 +16794,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>462</v>
       </c>
@@ -16819,7 +16842,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>465</v>
       </c>
@@ -16867,7 +16890,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>466</v>
       </c>
@@ -16915,7 +16938,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>471</v>
       </c>
@@ -16963,7 +16986,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>473</v>
       </c>
@@ -17011,7 +17034,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>475</v>
       </c>
@@ -17059,7 +17082,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>477</v>
       </c>
@@ -17107,7 +17130,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>479</v>
       </c>
@@ -17155,7 +17178,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>481</v>
       </c>
@@ -17203,7 +17226,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>483</v>
       </c>
@@ -17251,7 +17274,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>485</v>
       </c>
@@ -17299,7 +17322,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>488</v>
       </c>
@@ -17347,7 +17370,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>490</v>
       </c>
@@ -17395,7 +17418,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>492</v>
       </c>
@@ -17443,7 +17466,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>494</v>
       </c>
@@ -17491,7 +17514,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>496</v>
       </c>
@@ -17539,7 +17562,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>498</v>
       </c>
@@ -17587,7 +17610,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>500</v>
       </c>
@@ -17635,7 +17658,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>503</v>
       </c>
@@ -17683,7 +17706,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>504</v>
       </c>
@@ -17731,7 +17754,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>509</v>
       </c>
@@ -17779,7 +17802,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>511</v>
       </c>
@@ -17827,7 +17850,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>514</v>
       </c>
@@ -17875,7 +17898,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>516</v>
       </c>
@@ -17923,7 +17946,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>518</v>
       </c>
@@ -17971,7 +17994,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>520</v>
       </c>
@@ -18019,7 +18042,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>522</v>
       </c>
@@ -18067,7 +18090,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>524</v>
       </c>
@@ -18115,7 +18138,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>526</v>
       </c>
@@ -18163,7 +18186,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>528</v>
       </c>
@@ -18211,7 +18234,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>531</v>
       </c>
@@ -18259,7 +18282,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>532</v>
       </c>
@@ -18307,7 +18330,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>536</v>
       </c>
@@ -18355,7 +18378,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>538</v>
       </c>
@@ -18403,7 +18426,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>540</v>
       </c>
@@ -18451,7 +18474,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>542</v>
       </c>
@@ -18499,7 +18522,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>544</v>
       </c>
@@ -18547,7 +18570,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>546</v>
       </c>
@@ -18595,7 +18618,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>548</v>
       </c>
@@ -18643,7 +18666,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>551</v>
       </c>
@@ -18691,7 +18714,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>552</v>
       </c>
@@ -18739,7 +18762,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>556</v>
       </c>
@@ -18787,7 +18810,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>559</v>
       </c>
@@ -18835,7 +18858,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>561</v>
       </c>
@@ -18883,7 +18906,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>563</v>
       </c>
@@ -18931,7 +18954,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>565</v>
       </c>
@@ -18979,7 +19002,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>568</v>
       </c>
@@ -19030,7 +19053,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>569</v>
       </c>
@@ -19081,7 +19104,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>573</v>
       </c>
@@ -19132,7 +19155,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>578</v>
       </c>
@@ -19183,7 +19206,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>581</v>
       </c>
@@ -19234,7 +19257,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>585</v>
       </c>
@@ -19285,7 +19308,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>11</v>
       </c>
@@ -19336,7 +19359,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
@@ -19387,7 +19410,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>11</v>
       </c>
@@ -19438,7 +19461,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>11</v>
       </c>
@@ -19489,7 +19512,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>11</v>
       </c>
@@ -19540,12 +19563,12 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="17" t="s">
+    <row r="261" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="19" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1908</v>
       </c>
@@ -19596,7 +19619,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1909</v>
       </c>
@@ -19647,7 +19670,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1910</v>
       </c>
@@ -19698,7 +19721,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1911</v>
       </c>
@@ -19749,7 +19772,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1908</v>
       </c>
@@ -19800,7 +19823,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1909</v>
       </c>
@@ -19851,7 +19874,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1912</v>
       </c>
@@ -19902,7 +19925,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1912</v>
       </c>
@@ -19953,7 +19976,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1912</v>
       </c>
@@ -20004,7 +20027,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1912</v>
       </c>
@@ -20055,7 +20078,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1912</v>
       </c>
@@ -20106,7 +20129,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20157,7 +20180,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20208,7 +20231,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20259,7 +20282,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20310,7 +20333,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20361,7 +20384,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>11</v>
       </c>
@@ -20412,7 +20435,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1912</v>
       </c>
@@ -20463,7 +20486,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1912</v>
       </c>
@@ -20514,7 +20537,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1912</v>
       </c>
@@ -20565,7 +20588,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20616,7 +20639,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20667,7 +20690,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1913</v>
       </c>
@@ -20718,7 +20741,7 @@
       <c r="Z284" s="5"/>
       <c r="AA284" s="5"/>
     </row>
-    <row r="285" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>11</v>
       </c>
@@ -20769,7 +20792,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>11</v>
       </c>
@@ -20820,7 +20843,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>11</v>
       </c>
@@ -20871,7 +20894,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>11</v>
       </c>
@@ -20922,7 +20945,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>11</v>
       </c>
@@ -20973,7 +20996,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>11</v>
       </c>
@@ -21024,7 +21047,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>11</v>
       </c>
@@ -21075,7 +21098,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>11</v>
       </c>
@@ -21126,7 +21149,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>11</v>
       </c>
@@ -21177,7 +21200,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>11</v>
       </c>
@@ -21228,7 +21251,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
@@ -21279,7 +21302,7 @@
       <c r="Z295" s="6"/>
       <c r="AA295" s="6"/>
     </row>
-    <row r="296" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>11</v>
       </c>
@@ -21330,7 +21353,7 @@
       <c r="Z296" s="6"/>
       <c r="AA296" s="6"/>
     </row>
-    <row r="297" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>11</v>
       </c>
@@ -21381,7 +21404,7 @@
       <c r="Z297" s="6"/>
       <c r="AA297" s="6"/>
     </row>
-    <row r="298" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>11</v>
       </c>
@@ -21432,7 +21455,7 @@
       <c r="Z298" s="6"/>
       <c r="AA298" s="6"/>
     </row>
-    <row r="299" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>11</v>
       </c>
@@ -21483,7 +21506,7 @@
       <c r="Z299" s="6"/>
       <c r="AA299" s="6"/>
     </row>
-    <row r="300" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>11</v>
       </c>
@@ -21534,7 +21557,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>11</v>
       </c>
@@ -21585,7 +21608,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>11</v>
       </c>
@@ -21636,7 +21659,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>11</v>
       </c>
@@ -21687,7 +21710,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>11</v>
       </c>
@@ -21738,7 +21761,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>11</v>
       </c>
@@ -21789,7 +21812,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>11</v>
       </c>
@@ -21840,7 +21863,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>11</v>
       </c>
@@ -21891,7 +21914,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>11</v>
       </c>
@@ -21942,7 +21965,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>11</v>
       </c>
@@ -21993,7 +22016,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>11</v>
       </c>
@@ -22044,7 +22067,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>11</v>
       </c>
@@ -22095,7 +22118,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
@@ -22146,7 +22169,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>11</v>
       </c>
@@ -22197,7 +22220,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>11</v>
       </c>
@@ -22248,7 +22271,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>11</v>
       </c>
@@ -22299,7 +22322,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>11</v>
       </c>
@@ -22350,7 +22373,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>11</v>
       </c>
@@ -22401,7 +22424,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>11</v>
       </c>
@@ -22452,7 +22475,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>11</v>
       </c>
@@ -22503,7 +22526,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>11</v>
       </c>
@@ -22554,7 +22577,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>11</v>
       </c>
@@ -22605,7 +22628,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>11</v>
       </c>
@@ -22656,7 +22679,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>11</v>
       </c>
@@ -22707,7 +22730,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>11</v>
       </c>
@@ -22758,7 +22781,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>11</v>
       </c>
@@ -22809,7 +22832,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>11</v>
       </c>
@@ -22860,7 +22883,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>11</v>
       </c>
@@ -22911,7 +22934,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>11</v>
       </c>
@@ -22962,7 +22985,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>11</v>
       </c>
@@ -23013,7 +23036,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>11</v>
       </c>
@@ -23064,7 +23087,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>11</v>
       </c>
@@ -23115,7 +23138,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>11</v>
       </c>
@@ -23166,7 +23189,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23217,7 +23240,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23268,7 +23291,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23319,7 +23342,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23370,7 +23393,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23421,7 +23444,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23472,7 +23495,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23523,7 +23546,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23574,7 +23597,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23625,7 +23648,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23676,7 +23699,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23727,7 +23750,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23778,7 +23801,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23829,7 +23852,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23880,7 +23903,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23931,7 +23954,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23982,7 +24005,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24033,7 +24056,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24084,7 +24107,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24135,7 +24158,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24186,7 +24209,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>11</v>
       </c>
@@ -24237,7 +24260,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>11</v>
       </c>
@@ -24288,7 +24311,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
@@ -24339,7 +24362,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>11</v>
       </c>
@@ -24390,7 +24413,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24441,7 +24464,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24492,7 +24515,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24543,7 +24566,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24594,7 +24617,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24645,7 +24668,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24696,7 +24719,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24747,7 +24770,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24798,7 +24821,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24849,7 +24872,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24900,7 +24923,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24951,7 +24974,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25002,7 +25025,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25053,7 +25076,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25104,7 +25127,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25155,7 +25178,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25206,7 +25229,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25257,7 +25280,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25308,7 +25331,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25359,7 +25382,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25410,7 +25433,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25461,7 +25484,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25512,7 +25535,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25563,7 +25586,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25614,7 +25637,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25665,7 +25688,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25716,7 +25739,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>1913</v>
       </c>
@@ -25767,7 +25790,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>11</v>
       </c>
@@ -25818,7 +25841,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>11</v>
       </c>
@@ -25869,7 +25892,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>11</v>
       </c>
@@ -25920,7 +25943,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>1912</v>
       </c>
@@ -25971,7 +25994,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26022,7 +26045,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26073,7 +26096,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26124,7 +26147,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26175,7 +26198,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26226,7 +26249,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26277,7 +26300,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26328,7 +26351,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>11</v>
       </c>
@@ -26379,7 +26402,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26430,7 +26453,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>11</v>
       </c>
@@ -26481,7 +26504,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>11</v>
       </c>
@@ -26532,7 +26555,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26583,7 +26606,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26634,7 +26657,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26685,7 +26708,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26736,7 +26759,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26787,7 +26810,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26838,7 +26861,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>1912</v>
       </c>
@@ -26889,7 +26912,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26940,7 +26963,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>1913</v>
       </c>
@@ -26991,7 +27014,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27042,7 +27065,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>11</v>
       </c>
@@ -27093,7 +27116,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27144,7 +27167,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27195,7 +27218,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27246,7 +27269,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27297,7 +27320,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27348,7 +27371,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27399,7 +27422,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27450,7 +27473,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27501,7 +27524,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27552,7 +27575,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27603,7 +27626,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27654,7 +27677,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27705,7 +27728,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27756,7 +27779,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27807,7 +27830,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27858,7 +27881,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27909,7 +27932,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>1913</v>
       </c>
@@ -27960,7 +27983,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28011,7 +28034,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28062,7 +28085,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>1913</v>
       </c>
@@ -28113,7 +28136,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>1913</v>
       </c>
@@ -28164,7 +28187,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28215,7 +28238,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28266,7 +28289,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>1913</v>
       </c>
@@ -28317,7 +28340,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1913</v>
       </c>
@@ -28368,7 +28391,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28419,7 +28442,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28470,7 +28493,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1913</v>
       </c>
@@ -28521,7 +28544,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1913</v>
       </c>
@@ -28572,7 +28595,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>11</v>
       </c>
@@ -28623,7 +28646,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
     </row>
-    <row r="440" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>11</v>
       </c>
@@ -28674,7 +28697,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>11</v>
       </c>
@@ -28725,7 +28748,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
     </row>
-    <row r="442" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>11</v>
       </c>
@@ -28776,7 +28799,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>11</v>
       </c>
@@ -28827,7 +28850,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>11</v>
       </c>
@@ -28878,7 +28901,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28929,7 +28952,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1912</v>
       </c>
@@ -28980,7 +29003,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1913</v>
       </c>
@@ -29031,7 +29054,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1913</v>
       </c>
@@ -29082,7 +29105,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
     </row>
-    <row r="449" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>1912</v>
       </c>
@@ -29133,7 +29156,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1912</v>
       </c>
@@ -29184,7 +29207,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
     </row>
-    <row r="451" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1913</v>
       </c>
@@ -29235,7 +29258,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1913</v>
       </c>
@@ -29286,7 +29309,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
     </row>
-    <row r="453" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1912</v>
       </c>
@@ -29337,7 +29360,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
     </row>
-    <row r="454" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1912</v>
       </c>
@@ -29388,7 +29411,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
     </row>
-    <row r="455" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>1913</v>
       </c>
@@ -29439,7 +29462,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
     </row>
-    <row r="456" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1913</v>
       </c>
@@ -29490,19 +29513,19 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="1:27" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="17" t="s">
+    <row r="457" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="19" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="458" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>845</v>
       </c>
       <c r="B458" t="s">
         <v>2078</v>
       </c>
-      <c r="C458" s="1" t="s">
+      <c r="C458" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D458" s="1" t="s">
@@ -29542,14 +29565,14 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
     </row>
-    <row r="459" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>847</v>
       </c>
       <c r="B459" t="s">
         <v>2079</v>
       </c>
-      <c r="C459" s="1" t="s">
+      <c r="C459" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D459" s="1" t="s">
@@ -29591,14 +29614,14 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>849</v>
       </c>
       <c r="B460" t="s">
         <v>2080</v>
       </c>
-      <c r="C460" s="1" t="s">
+      <c r="C460" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D460" s="1" t="s">
@@ -29640,14 +29663,14 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
     </row>
-    <row r="461" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>851</v>
       </c>
       <c r="B461" t="s">
         <v>2081</v>
       </c>
-      <c r="C461" s="1" t="s">
+      <c r="C461" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D461" s="1" t="s">
@@ -29689,14 +29712,14 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>853</v>
       </c>
       <c r="B462" t="s">
         <v>2082</v>
       </c>
-      <c r="C462" s="1" t="s">
+      <c r="C462" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D462" s="1" t="s">
@@ -29738,14 +29761,14 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
     </row>
-    <row r="463" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>855</v>
       </c>
       <c r="B463" t="s">
         <v>2083</v>
       </c>
-      <c r="C463" s="1" t="s">
+      <c r="C463" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D463" s="1" t="s">
@@ -29787,14 +29810,14 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
     </row>
-    <row r="464" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B464" t="s">
         <v>2084</v>
       </c>
-      <c r="C464" s="1" t="s">
+      <c r="C464" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D464" s="1" t="s">
@@ -29836,14 +29859,14 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
     </row>
-    <row r="465" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>858</v>
       </c>
       <c r="B465" t="s">
         <v>2085</v>
       </c>
-      <c r="C465" s="1" t="s">
+      <c r="C465" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D465" s="1" t="s">
@@ -29885,14 +29908,14 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="C466" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D466" s="1" t="s">
@@ -29934,14 +29957,14 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
     </row>
-    <row r="467" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B467" t="s">
         <v>861</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="C467" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D467" s="1" t="s">
@@ -29983,14 +30006,14 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
     </row>
-    <row r="468" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B468" t="s">
         <v>864</v>
       </c>
-      <c r="C468" s="1" t="s">
+      <c r="C468" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D468" s="1" t="s">
@@ -30032,14 +30055,14 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
     </row>
-    <row r="469" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>866</v>
       </c>
       <c r="B469" t="s">
         <v>867</v>
       </c>
-      <c r="C469" s="1" t="s">
+      <c r="C469" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D469" s="1" t="s">
@@ -30081,14 +30104,14 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>869</v>
       </c>
       <c r="B470" t="s">
         <v>870</v>
       </c>
-      <c r="C470" s="1" t="s">
+      <c r="C470" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D470" s="1" t="s">
@@ -30130,14 +30153,14 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
     </row>
-    <row r="471" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>872</v>
       </c>
       <c r="B471" t="s">
         <v>873</v>
       </c>
-      <c r="C471" s="1" t="s">
+      <c r="C471" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D471" s="1" t="s">
@@ -30179,14 +30202,14 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
     </row>
-    <row r="472" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B472" t="s">
         <v>875</v>
       </c>
-      <c r="C472" s="1" t="s">
+      <c r="C472" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D472" s="1" t="s">
@@ -30228,14 +30251,14 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
     </row>
-    <row r="473" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>2088</v>
       </c>
-      <c r="C473" s="1" t="s">
+      <c r="C473" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D473" s="1" t="s">
@@ -30277,14 +30300,14 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
     </row>
-    <row r="474" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>2090</v>
       </c>
-      <c r="C474" s="1" t="s">
+      <c r="C474" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D474" s="1" t="s">
@@ -30326,14 +30349,14 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
     </row>
-    <row r="475" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>2096</v>
       </c>
-      <c r="C475" s="1" t="s">
+      <c r="C475" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D475" s="1" t="s">
@@ -30375,14 +30398,14 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B476" t="s">
         <v>2097</v>
       </c>
-      <c r="C476" s="1" t="s">
+      <c r="C476" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D476" s="1" t="s">
@@ -30424,14 +30447,14 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B477" t="s">
         <v>2098</v>
       </c>
-      <c r="C477" s="1" t="s">
+      <c r="C477" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D477" s="1" t="s">
@@ -30473,14 +30496,14 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B478" t="s">
         <v>2099</v>
       </c>
-      <c r="C478" s="1" t="s">
+      <c r="C478" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D478" s="1" t="s">
@@ -30522,14 +30545,14 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B479" t="s">
         <v>2100</v>
       </c>
-      <c r="C479" s="1" t="s">
+      <c r="C479" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D479" s="1" t="s">
@@ -30571,14 +30594,14 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B480" t="s">
         <v>2101</v>
       </c>
-      <c r="C480" s="1" t="s">
+      <c r="C480" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D480" s="1" t="s">
@@ -30620,14 +30643,14 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B481" t="s">
         <v>2102</v>
       </c>
-      <c r="C481" s="1" t="s">
+      <c r="C481" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D481" s="1" t="s">
@@ -30669,14 +30692,14 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>2114</v>
       </c>
       <c r="B482" t="s">
         <v>2110</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="C482" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D482" s="1" t="s">
@@ -30718,14 +30741,14 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>843</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="C483" s="1" t="s">
+      <c r="C483" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D483" s="1" t="s">
@@ -30769,12 +30792,12 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="16" t="s">
+    <row r="484" spans="1:27" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="18" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>37</v>
       </c>
@@ -30823,7 +30846,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>51</v>
       </c>
@@ -30872,7 +30895,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>843</v>
       </c>
@@ -30921,7 +30944,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>882</v>
       </c>
@@ -30970,7 +30993,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>885</v>
       </c>
@@ -31019,7 +31042,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>886</v>
       </c>
@@ -31068,7 +31091,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>888</v>
       </c>
@@ -31117,7 +31140,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>890</v>
       </c>
@@ -31166,7 +31189,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>892</v>
       </c>
@@ -31185,7 +31208,7 @@
       <c r="F493" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G493" s="8" t="s">
+      <c r="G493" s="24" t="s">
         <v>1599</v>
       </c>
       <c r="H493" s="1" t="s">
@@ -31215,7 +31238,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>894</v>
       </c>
@@ -31264,7 +31287,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>896</v>
       </c>
@@ -31313,7 +31336,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>898</v>
       </c>
@@ -31362,7 +31385,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>900</v>
       </c>
@@ -31411,7 +31434,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>902</v>
       </c>
@@ -31460,7 +31483,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>904</v>
       </c>
@@ -31509,7 +31532,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>906</v>
       </c>
@@ -31558,7 +31581,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>908</v>
       </c>
@@ -31607,7 +31630,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>910</v>
       </c>
@@ -31656,7 +31679,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>912</v>
       </c>
@@ -31705,7 +31728,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>914</v>
       </c>
@@ -31754,7 +31777,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>916</v>
       </c>
@@ -31803,7 +31826,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>918</v>
       </c>
@@ -31852,7 +31875,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>920</v>
       </c>
@@ -31901,7 +31924,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>922</v>
       </c>
@@ -31950,7 +31973,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>924</v>
       </c>
@@ -31999,7 +32022,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>926</v>
       </c>
@@ -32048,7 +32071,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>928</v>
       </c>
@@ -32097,7 +32120,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>930</v>
       </c>
@@ -32146,7 +32169,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>932</v>
       </c>
@@ -32195,7 +32218,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>934</v>
       </c>
@@ -32244,7 +32267,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>936</v>
       </c>
@@ -32293,7 +32316,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>938</v>
       </c>
@@ -32342,7 +32365,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>940</v>
       </c>
@@ -32391,7 +32414,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>942</v>
       </c>
@@ -32440,7 +32463,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>944</v>
       </c>
@@ -32489,7 +32512,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>946</v>
       </c>
@@ -32538,7 +32561,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>948</v>
       </c>
@@ -32587,7 +32610,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>950</v>
       </c>
@@ -32636,7 +32659,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>952</v>
       </c>
@@ -32685,7 +32708,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>954</v>
       </c>
@@ -32734,7 +32757,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>956</v>
       </c>
@@ -32783,7 +32806,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>958</v>
       </c>
@@ -32832,7 +32855,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>960</v>
       </c>
@@ -32881,7 +32904,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>962</v>
       </c>
@@ -32930,7 +32953,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>964</v>
       </c>
@@ -32979,7 +33002,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>966</v>
       </c>
@@ -33028,7 +33051,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>968</v>
       </c>
@@ -33077,7 +33100,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>970</v>
       </c>
@@ -33126,7 +33149,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>972</v>
       </c>
@@ -33175,7 +33198,7 @@
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
     </row>
-    <row r="534" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>974</v>
       </c>
@@ -33224,7 +33247,7 @@
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
     </row>
-    <row r="535" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>976</v>
       </c>
@@ -33273,7 +33296,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>978</v>
       </c>
@@ -33322,7 +33345,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>980</v>
       </c>
@@ -33371,7 +33394,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>982</v>
       </c>
@@ -33420,7 +33443,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>984</v>
       </c>
@@ -33469,7 +33492,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>986</v>
       </c>
@@ -33518,7 +33541,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>988</v>
       </c>
@@ -33567,7 +33590,7 @@
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
     </row>
-    <row r="542" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>990</v>
       </c>
@@ -33616,7 +33639,7 @@
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
     </row>
-    <row r="543" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>992</v>
       </c>
@@ -33665,7 +33688,7 @@
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
     </row>
-    <row r="544" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>994</v>
       </c>
@@ -33714,7 +33737,7 @@
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
     </row>
-    <row r="545" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>996</v>
       </c>
@@ -33763,7 +33786,7 @@
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
     </row>
-    <row r="546" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>998</v>
       </c>
@@ -33812,7 +33835,7 @@
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
     </row>
-    <row r="547" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1000</v>
       </c>
@@ -33861,7 +33884,7 @@
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
     </row>
-    <row r="548" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1002</v>
       </c>
@@ -33910,7 +33933,7 @@
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
     </row>
-    <row r="549" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1004</v>
       </c>
@@ -33959,7 +33982,7 @@
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
     </row>
-    <row r="550" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1006</v>
       </c>
@@ -34008,7 +34031,7 @@
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
     </row>
-    <row r="551" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1008</v>
       </c>
@@ -34057,7 +34080,7 @@
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
     </row>
-    <row r="552" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1010</v>
       </c>
@@ -34106,7 +34129,7 @@
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
     </row>
-    <row r="553" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1012</v>
       </c>
@@ -34155,7 +34178,7 @@
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
     </row>
-    <row r="554" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>144</v>
       </c>
@@ -34204,7 +34227,7 @@
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
     </row>
-    <row r="555" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1015</v>
       </c>
@@ -34253,7 +34276,7 @@
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
     </row>
-    <row r="556" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1017</v>
       </c>
@@ -34302,7 +34325,7 @@
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
     </row>
-    <row r="557" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1019</v>
       </c>
@@ -34351,7 +34374,7 @@
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
     </row>
-    <row r="558" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1021</v>
       </c>
@@ -34400,7 +34423,7 @@
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
     </row>
-    <row r="559" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1023</v>
       </c>
@@ -34449,7 +34472,7 @@
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
     </row>
-    <row r="560" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1025</v>
       </c>
@@ -34498,7 +34521,7 @@
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
     </row>
-    <row r="561" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4" t="s">
         <v>1027</v>
       </c>
@@ -34547,7 +34570,7 @@
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
     </row>
-    <row r="562" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1029</v>
       </c>
@@ -34596,7 +34619,7 @@
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
     </row>
-    <row r="563" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1031</v>
       </c>
@@ -34645,7 +34668,7 @@
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
     </row>
-    <row r="564" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1033</v>
       </c>
@@ -34694,7 +34717,7 @@
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
     </row>
-    <row r="565" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1035</v>
       </c>
@@ -34743,7 +34766,7 @@
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
     </row>
-    <row r="566" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1037</v>
       </c>
@@ -34792,7 +34815,7 @@
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
     </row>
-    <row r="567" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1039</v>
       </c>
@@ -34841,7 +34864,7 @@
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
     </row>
-    <row r="568" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1041</v>
       </c>
@@ -34890,7 +34913,7 @@
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
     </row>
-    <row r="569" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1043</v>
       </c>
@@ -34939,7 +34962,7 @@
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
     </row>
-    <row r="570" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1045</v>
       </c>
@@ -34988,7 +35011,7 @@
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
     </row>
-    <row r="571" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1047</v>
       </c>
@@ -35037,7 +35060,7 @@
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
     </row>
-    <row r="572" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1049</v>
       </c>
@@ -35086,7 +35109,7 @@
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
     </row>
-    <row r="573" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1051</v>
       </c>
@@ -35135,7 +35158,7 @@
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
     </row>
-    <row r="574" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1053</v>
       </c>
@@ -35184,7 +35207,7 @@
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
     </row>
-    <row r="575" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1055</v>
       </c>
@@ -35233,7 +35256,7 @@
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
     </row>
-    <row r="576" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1058</v>
       </c>
@@ -35282,7 +35305,7 @@
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
     </row>
-    <row r="577" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1060</v>
       </c>
@@ -35331,7 +35354,7 @@
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
     </row>
-    <row r="578" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1062</v>
       </c>
@@ -35380,7 +35403,7 @@
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
     </row>
-    <row r="579" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1064</v>
       </c>
@@ -35429,7 +35452,7 @@
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
     </row>
-    <row r="580" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>195</v>
       </c>
@@ -35478,7 +35501,7 @@
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
     </row>
-    <row r="581" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>196</v>
       </c>
@@ -35527,7 +35550,7 @@
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
     </row>
-    <row r="582" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>199</v>
       </c>
@@ -35576,7 +35599,7 @@
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
     </row>
-    <row r="583" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>201</v>
       </c>
@@ -35625,7 +35648,7 @@
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
     </row>
-    <row r="584" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>203</v>
       </c>
@@ -35674,7 +35697,7 @@
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
     </row>
-    <row r="585" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>205</v>
       </c>
@@ -35723,7 +35746,7 @@
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
     </row>
-    <row r="586" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>207</v>
       </c>
@@ -35772,7 +35795,7 @@
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
     </row>
-    <row r="587" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>209</v>
       </c>
@@ -35821,7 +35844,7 @@
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
     </row>
-    <row r="588" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
         <v>1074</v>
       </c>
@@ -35870,7 +35893,7 @@
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
     </row>
-    <row r="589" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1076</v>
       </c>
@@ -35919,7 +35942,7 @@
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
     </row>
-    <row r="590" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1078</v>
       </c>
@@ -35968,7 +35991,7 @@
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
     </row>
-    <row r="591" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>238</v>
       </c>
@@ -36017,7 +36040,7 @@
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
     </row>
-    <row r="592" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>239</v>
       </c>
@@ -36066,7 +36089,7 @@
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
     </row>
-    <row r="593" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>242</v>
       </c>
@@ -36115,7 +36138,7 @@
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
     </row>
-    <row r="594" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>244</v>
       </c>
@@ -36164,7 +36187,7 @@
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
     </row>
-    <row r="595" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>246</v>
       </c>
@@ -36213,7 +36236,7 @@
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
     </row>
-    <row r="596" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>248</v>
       </c>
@@ -36262,7 +36285,7 @@
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
     </row>
-    <row r="597" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>250</v>
       </c>
@@ -36311,7 +36334,7 @@
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
     </row>
-    <row r="598" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>252</v>
       </c>
@@ -36360,7 +36383,7 @@
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
     </row>
-    <row r="599" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1088</v>
       </c>
@@ -36409,7 +36432,7 @@
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
     </row>
-    <row r="600" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1090</v>
       </c>
@@ -36456,7 +36479,7 @@
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
     </row>
-    <row r="601" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1092</v>
       </c>
@@ -36505,7 +36528,7 @@
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
     </row>
-    <row r="602" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1094</v>
       </c>
@@ -36554,7 +36577,7 @@
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
     </row>
-    <row r="603" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1096</v>
       </c>
@@ -36603,7 +36626,7 @@
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
     </row>
-    <row r="604" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1098</v>
       </c>
@@ -36652,7 +36675,7 @@
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
     </row>
-    <row r="605" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1100</v>
       </c>
@@ -36701,7 +36724,7 @@
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
     </row>
-    <row r="606" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1102</v>
       </c>
@@ -36750,7 +36773,7 @@
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
     </row>
-    <row r="607" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1104</v>
       </c>
@@ -36797,7 +36820,7 @@
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
     </row>
-    <row r="608" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1106</v>
       </c>
@@ -36844,7 +36867,7 @@
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
     </row>
-    <row r="609" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1108</v>
       </c>
@@ -36891,7 +36914,7 @@
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
     </row>
-    <row r="610" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1110</v>
       </c>
@@ -36938,7 +36961,7 @@
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
     </row>
-    <row r="611" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1112</v>
       </c>
@@ -36985,7 +37008,7 @@
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
     </row>
-    <row r="612" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1114</v>
       </c>
@@ -37032,7 +37055,7 @@
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
     </row>
-    <row r="613" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1116</v>
       </c>
@@ -37079,7 +37102,7 @@
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
     </row>
-    <row r="614" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1118</v>
       </c>
@@ -37126,7 +37149,7 @@
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
     </row>
-    <row r="615" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1120</v>
       </c>
@@ -37173,7 +37196,7 @@
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
     </row>
-    <row r="616" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1122</v>
       </c>
@@ -37220,7 +37243,7 @@
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
     </row>
-    <row r="617" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1124</v>
       </c>
@@ -37267,7 +37290,7 @@
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
     </row>
-    <row r="618" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1126</v>
       </c>
@@ -37314,7 +37337,7 @@
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
     </row>
-    <row r="619" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1128</v>
       </c>
@@ -37361,7 +37384,7 @@
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
     </row>
-    <row r="620" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1130</v>
       </c>
@@ -37408,7 +37431,7 @@
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
     </row>
-    <row r="621" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1132</v>
       </c>
@@ -37455,7 +37478,7 @@
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
     </row>
-    <row r="622" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1134</v>
       </c>
@@ -37502,7 +37525,7 @@
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
     </row>
-    <row r="623" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1136</v>
       </c>
@@ -37549,7 +37572,7 @@
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
     </row>
-    <row r="624" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1138</v>
       </c>
@@ -37596,7 +37619,7 @@
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
     </row>
-    <row r="625" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1140</v>
       </c>
@@ -37643,7 +37666,7 @@
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
     </row>
-    <row r="626" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1142</v>
       </c>
@@ -37690,7 +37713,7 @@
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
     </row>
-    <row r="627" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1144</v>
       </c>
@@ -37737,7 +37760,7 @@
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
     </row>
-    <row r="628" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1146</v>
       </c>
@@ -37784,7 +37807,7 @@
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
     </row>
-    <row r="629" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1148</v>
       </c>
@@ -37831,7 +37854,7 @@
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
     </row>
-    <row r="630" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1150</v>
       </c>
@@ -37878,7 +37901,7 @@
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
     </row>
-    <row r="631" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1152</v>
       </c>
@@ -37925,7 +37948,7 @@
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
     </row>
-    <row r="632" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1154</v>
       </c>
@@ -37972,7 +37995,7 @@
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
     </row>
-    <row r="633" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1156</v>
       </c>
@@ -38019,7 +38042,7 @@
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
     </row>
-    <row r="634" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1158</v>
       </c>
@@ -38066,7 +38089,7 @@
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
     </row>
-    <row r="635" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1160</v>
       </c>
@@ -38113,7 +38136,7 @@
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
     </row>
-    <row r="636" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1162</v>
       </c>
@@ -38160,7 +38183,7 @@
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
     </row>
-    <row r="637" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1164</v>
       </c>
@@ -38207,7 +38230,7 @@
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
     </row>
-    <row r="638" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1166</v>
       </c>
@@ -38254,7 +38277,7 @@
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
     </row>
-    <row r="639" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1168</v>
       </c>
@@ -38301,7 +38324,7 @@
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
     </row>
-    <row r="640" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1170</v>
       </c>
@@ -38348,7 +38371,7 @@
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
     </row>
-    <row r="641" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1172</v>
       </c>
@@ -38395,7 +38418,7 @@
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
     </row>
-    <row r="642" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1174</v>
       </c>
@@ -38442,7 +38465,7 @@
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
     </row>
-    <row r="643" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1176</v>
       </c>
@@ -38489,7 +38512,7 @@
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
     </row>
-    <row r="644" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1178</v>
       </c>
@@ -38536,7 +38559,7 @@
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
     </row>
-    <row r="645" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1180</v>
       </c>
@@ -38583,7 +38606,7 @@
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
     </row>
-    <row r="646" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1182</v>
       </c>
@@ -38630,7 +38653,7 @@
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
     </row>
-    <row r="647" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1184</v>
       </c>
@@ -38677,7 +38700,7 @@
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
     </row>
-    <row r="648" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1186</v>
       </c>
@@ -38724,7 +38747,7 @@
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
     </row>
-    <row r="649" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1188</v>
       </c>
@@ -38771,7 +38794,7 @@
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
     </row>
-    <row r="650" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1190</v>
       </c>
@@ -38818,7 +38841,7 @@
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
     </row>
-    <row r="651" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1192</v>
       </c>
@@ -38865,7 +38888,7 @@
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
     </row>
-    <row r="652" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1194</v>
       </c>
@@ -38912,7 +38935,7 @@
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
     </row>
-    <row r="653" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1196</v>
       </c>
@@ -38959,7 +38982,7 @@
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
     </row>
-    <row r="654" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1198</v>
       </c>
@@ -39006,7 +39029,7 @@
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
     </row>
-    <row r="655" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1200</v>
       </c>
@@ -39053,7 +39076,7 @@
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
     </row>
-    <row r="656" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1202</v>
       </c>
@@ -39100,7 +39123,7 @@
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
     </row>
-    <row r="657" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1204</v>
       </c>
@@ -39147,7 +39170,7 @@
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
     </row>
-    <row r="658" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1206</v>
       </c>
@@ -39194,7 +39217,7 @@
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
     </row>
-    <row r="659" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1208</v>
       </c>
@@ -39241,7 +39264,7 @@
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
     </row>
-    <row r="660" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1210</v>
       </c>
@@ -39288,7 +39311,7 @@
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
     </row>
-    <row r="661" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1212</v>
       </c>
@@ -39335,7 +39358,7 @@
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
     </row>
-    <row r="662" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1214</v>
       </c>
@@ -39382,7 +39405,7 @@
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
     </row>
-    <row r="663" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1216</v>
       </c>
@@ -39429,7 +39452,7 @@
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
     </row>
-    <row r="664" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1218</v>
       </c>
@@ -39476,7 +39499,7 @@
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
     </row>
-    <row r="665" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1220</v>
       </c>
@@ -39523,7 +39546,7 @@
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
     </row>
-    <row r="666" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1222</v>
       </c>
@@ -39570,7 +39593,7 @@
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
     </row>
-    <row r="667" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1224</v>
       </c>
@@ -39617,7 +39640,7 @@
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
     </row>
-    <row r="668" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1226</v>
       </c>
@@ -39664,7 +39687,7 @@
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
     </row>
-    <row r="669" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1228</v>
       </c>
@@ -39711,7 +39734,7 @@
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
     </row>
-    <row r="670" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1230</v>
       </c>
@@ -39758,7 +39781,7 @@
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
     </row>
-    <row r="671" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1232</v>
       </c>
@@ -39805,7 +39828,7 @@
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
     </row>
-    <row r="672" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1234</v>
       </c>
@@ -39852,7 +39875,7 @@
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
     </row>
-    <row r="673" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1236</v>
       </c>
@@ -39899,7 +39922,7 @@
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
     </row>
-    <row r="674" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1238</v>
       </c>
@@ -39946,7 +39969,7 @@
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
     </row>
-    <row r="675" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1240</v>
       </c>
@@ -39993,7 +40016,7 @@
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
     </row>
-    <row r="676" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1242</v>
       </c>
@@ -40040,7 +40063,7 @@
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
     </row>
-    <row r="677" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1244</v>
       </c>
@@ -40087,7 +40110,7 @@
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
     </row>
-    <row r="678" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1246</v>
       </c>
@@ -40134,7 +40157,7 @@
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
     </row>
-    <row r="679" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1248</v>
       </c>
@@ -40181,7 +40204,7 @@
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
     </row>
-    <row r="680" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1250</v>
       </c>
@@ -40228,7 +40251,7 @@
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
     </row>
-    <row r="681" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1252</v>
       </c>
@@ -40275,7 +40298,7 @@
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
     </row>
-    <row r="682" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1254</v>
       </c>
@@ -40322,7 +40345,7 @@
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
     </row>
-    <row r="683" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1256</v>
       </c>
@@ -40369,7 +40392,7 @@
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
     </row>
-    <row r="684" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1258</v>
       </c>
@@ -40416,7 +40439,7 @@
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
     </row>
-    <row r="685" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1260</v>
       </c>
@@ -40463,7 +40486,7 @@
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
     </row>
-    <row r="686" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1262</v>
       </c>
@@ -40510,7 +40533,7 @@
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
     </row>
-    <row r="687" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1264</v>
       </c>
@@ -40557,7 +40580,7 @@
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
     </row>
-    <row r="688" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1266</v>
       </c>
@@ -40604,7 +40627,7 @@
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
     </row>
-    <row r="689" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1268</v>
       </c>
@@ -40651,7 +40674,7 @@
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
     </row>
-    <row r="690" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1270</v>
       </c>
@@ -40698,7 +40721,7 @@
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
     </row>
-    <row r="691" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1272</v>
       </c>
@@ -40745,7 +40768,7 @@
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
     </row>
-    <row r="692" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1274</v>
       </c>
@@ -40792,7 +40815,7 @@
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
     </row>
-    <row r="693" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1276</v>
       </c>
@@ -40839,7 +40862,7 @@
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
     </row>
-    <row r="694" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1278</v>
       </c>
@@ -40886,7 +40909,7 @@
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
     </row>
-    <row r="695" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1280</v>
       </c>
@@ -40933,7 +40956,7 @@
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
     </row>
-    <row r="696" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1282</v>
       </c>
@@ -40980,7 +41003,7 @@
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
     </row>
-    <row r="697" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1284</v>
       </c>
@@ -41027,7 +41050,7 @@
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
     </row>
-    <row r="698" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1286</v>
       </c>
@@ -41074,7 +41097,7 @@
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
     </row>
-    <row r="699" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1288</v>
       </c>
@@ -41121,7 +41144,7 @@
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
     </row>
-    <row r="700" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1290</v>
       </c>
@@ -41168,7 +41191,7 @@
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
     </row>
-    <row r="701" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1292</v>
       </c>
@@ -41215,7 +41238,7 @@
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
     </row>
-    <row r="702" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1294</v>
       </c>
@@ -41262,7 +41285,7 @@
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
     </row>
-    <row r="703" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1296</v>
       </c>
@@ -41309,7 +41332,7 @@
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
     </row>
-    <row r="704" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1298</v>
       </c>
@@ -41356,7 +41379,7 @@
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
     </row>
-    <row r="705" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1300</v>
       </c>
@@ -41403,7 +41426,7 @@
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
     </row>
-    <row r="706" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1302</v>
       </c>
@@ -41450,7 +41473,7 @@
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
     </row>
-    <row r="707" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1304</v>
       </c>
@@ -41497,7 +41520,7 @@
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
     </row>
-    <row r="708" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1306</v>
       </c>
@@ -41544,7 +41567,7 @@
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
     </row>
-    <row r="709" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1308</v>
       </c>
@@ -41591,7 +41614,7 @@
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
     </row>
-    <row r="710" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1310</v>
       </c>
@@ -41634,7 +41657,7 @@
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
     </row>
-    <row r="711" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1311</v>
       </c>
@@ -41681,7 +41704,7 @@
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
     </row>
-    <row r="712" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1313</v>
       </c>
@@ -41728,7 +41751,7 @@
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
     </row>
-    <row r="713" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1315</v>
       </c>
@@ -41775,7 +41798,7 @@
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
     </row>
-    <row r="714" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1317</v>
       </c>
@@ -41822,7 +41845,7 @@
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
     </row>
-    <row r="715" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1319</v>
       </c>
@@ -41869,7 +41892,7 @@
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
     </row>
-    <row r="716" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1321</v>
       </c>
@@ -41916,7 +41939,7 @@
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
     </row>
-    <row r="717" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1323</v>
       </c>
@@ -41963,7 +41986,7 @@
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
     </row>
-    <row r="718" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1325</v>
       </c>
@@ -42010,7 +42033,7 @@
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
     </row>
-    <row r="719" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1327</v>
       </c>
@@ -42057,7 +42080,7 @@
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
     </row>
-    <row r="720" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1329</v>
       </c>
@@ -42104,7 +42127,7 @@
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
     </row>
-    <row r="721" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1331</v>
       </c>
@@ -42151,7 +42174,7 @@
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
     </row>
-    <row r="722" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1333</v>
       </c>
@@ -42198,7 +42221,7 @@
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
     </row>
-    <row r="723" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1335</v>
       </c>
@@ -42245,7 +42268,7 @@
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
     </row>
-    <row r="724" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1337</v>
       </c>
@@ -42292,7 +42315,7 @@
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
     </row>
-    <row r="725" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1339</v>
       </c>
@@ -42337,7 +42360,7 @@
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
     </row>
-    <row r="726" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1341</v>
       </c>
@@ -42384,7 +42407,7 @@
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
     </row>
-    <row r="727" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1343</v>
       </c>
@@ -42429,7 +42452,7 @@
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
     </row>
-    <row r="728" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1345</v>
       </c>
@@ -42476,7 +42499,7 @@
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
     </row>
-    <row r="729" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1347</v>
       </c>
@@ -42521,7 +42544,7 @@
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
     </row>
-    <row r="730" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1349</v>
       </c>
@@ -42568,7 +42591,7 @@
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
     </row>
-    <row r="731" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1351</v>
       </c>
@@ -42613,7 +42636,7 @@
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
     </row>
-    <row r="732" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1353</v>
       </c>
@@ -42660,7 +42683,7 @@
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
     </row>
-    <row r="733" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1355</v>
       </c>
@@ -42707,7 +42730,7 @@
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
     </row>
-    <row r="734" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1357</v>
       </c>
@@ -42754,7 +42777,7 @@
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
     </row>
-    <row r="735" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1359</v>
       </c>
@@ -42801,7 +42824,7 @@
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
     </row>
-    <row r="736" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1361</v>
       </c>
@@ -42848,7 +42871,7 @@
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
     </row>
-    <row r="737" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1363</v>
       </c>
@@ -42895,7 +42918,7 @@
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
     </row>
-    <row r="738" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1365</v>
       </c>
@@ -42942,7 +42965,7 @@
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
     </row>
-    <row r="739" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1367</v>
       </c>
@@ -42989,7 +43012,7 @@
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
     </row>
-    <row r="740" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1369</v>
       </c>
@@ -43036,7 +43059,7 @@
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
     </row>
-    <row r="741" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1371</v>
       </c>
@@ -43083,7 +43106,7 @@
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
     </row>
-    <row r="742" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1373</v>
       </c>
@@ -43130,7 +43153,7 @@
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
     </row>
-    <row r="743" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1375</v>
       </c>
@@ -43177,7 +43200,7 @@
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
     </row>
-    <row r="744" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1377</v>
       </c>
@@ -43224,7 +43247,7 @@
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
     </row>
-    <row r="745" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1379</v>
       </c>
@@ -43271,7 +43294,7 @@
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
     </row>
-    <row r="746" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1381</v>
       </c>
@@ -43318,7 +43341,7 @@
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
     </row>
-    <row r="747" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1383</v>
       </c>
@@ -43365,7 +43388,7 @@
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
     </row>
-    <row r="748" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1385</v>
       </c>
@@ -43412,7 +43435,7 @@
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
     </row>
-    <row r="749" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1387</v>
       </c>
@@ -43459,7 +43482,7 @@
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
     </row>
-    <row r="750" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1389</v>
       </c>
@@ -43506,7 +43529,7 @@
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
     </row>
-    <row r="751" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1391</v>
       </c>
@@ -43553,7 +43576,7 @@
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
     </row>
-    <row r="752" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1393</v>
       </c>
@@ -43600,7 +43623,7 @@
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
     </row>
-    <row r="753" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1395</v>
       </c>
@@ -43647,7 +43670,7 @@
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
     </row>
-    <row r="754" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1397</v>
       </c>
@@ -43694,7 +43717,7 @@
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
     </row>
-    <row r="755" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1399</v>
       </c>
@@ -43741,7 +43764,7 @@
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
     </row>
-    <row r="756" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1401</v>
       </c>
@@ -43788,7 +43811,7 @@
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
     </row>
-    <row r="757" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1403</v>
       </c>
@@ -43835,7 +43858,7 @@
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
     </row>
-    <row r="758" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1405</v>
       </c>
@@ -43882,7 +43905,7 @@
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
     </row>
-    <row r="759" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1407</v>
       </c>
@@ -43929,7 +43952,7 @@
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
     </row>
-    <row r="760" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1409</v>
       </c>
@@ -43976,7 +43999,7 @@
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
     </row>
-    <row r="761" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1411</v>
       </c>
@@ -44023,7 +44046,7 @@
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
     </row>
-    <row r="762" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1413</v>
       </c>
@@ -44070,7 +44093,7 @@
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
     </row>
-    <row r="763" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1415</v>
       </c>
@@ -44117,7 +44140,7 @@
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
     </row>
-    <row r="764" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1417</v>
       </c>
@@ -44164,7 +44187,7 @@
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
     </row>
-    <row r="765" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1419</v>
       </c>
@@ -44211,7 +44234,7 @@
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
     </row>
-    <row r="766" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1421</v>
       </c>
@@ -44258,7 +44281,7 @@
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
     </row>
-    <row r="767" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1423</v>
       </c>
@@ -44305,7 +44328,7 @@
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
     </row>
-    <row r="768" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1425</v>
       </c>
@@ -44352,7 +44375,7 @@
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
     </row>
-    <row r="769" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1427</v>
       </c>
@@ -44399,7 +44422,7 @@
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
     </row>
-    <row r="770" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1429</v>
       </c>
@@ -44446,7 +44469,7 @@
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
     </row>
-    <row r="771" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1431</v>
       </c>
@@ -44493,7 +44516,7 @@
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
     </row>
-    <row r="772" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1433</v>
       </c>
@@ -44540,7 +44563,7 @@
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
     </row>
-    <row r="773" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1435</v>
       </c>
@@ -44587,7 +44610,7 @@
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
     </row>
-    <row r="774" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1437</v>
       </c>
@@ -44634,7 +44657,7 @@
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
     </row>
-    <row r="775" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1439</v>
       </c>
@@ -44681,7 +44704,7 @@
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
     </row>
-    <row r="776" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1441</v>
       </c>
@@ -44728,7 +44751,7 @@
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
     </row>
-    <row r="777" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1443</v>
       </c>
@@ -44775,7 +44798,7 @@
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
     </row>
-    <row r="778" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1445</v>
       </c>
@@ -44822,7 +44845,7 @@
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
     </row>
-    <row r="779" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1447</v>
       </c>
@@ -44869,7 +44892,7 @@
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
     </row>
-    <row r="780" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1449</v>
       </c>
@@ -44916,7 +44939,7 @@
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
     </row>
-    <row r="781" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1451</v>
       </c>
@@ -44963,7 +44986,7 @@
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
     </row>
-    <row r="782" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1453</v>
       </c>
@@ -45010,7 +45033,7 @@
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
     </row>
-    <row r="783" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1455</v>
       </c>
@@ -45057,7 +45080,7 @@
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
     </row>
-    <row r="784" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1457</v>
       </c>
@@ -45104,7 +45127,7 @@
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
     </row>
-    <row r="785" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1459</v>
       </c>
@@ -45151,7 +45174,7 @@
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
     </row>
-    <row r="786" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1461</v>
       </c>
@@ -45198,7 +45221,7 @@
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
     </row>
-    <row r="787" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1463</v>
       </c>
@@ -45245,7 +45268,7 @@
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
     </row>
-    <row r="788" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>551</v>
       </c>
@@ -45292,7 +45315,7 @@
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
     </row>
-    <row r="789" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>552</v>
       </c>
@@ -45339,7 +45362,7 @@
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
     </row>
-    <row r="790" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>556</v>
       </c>
@@ -45386,7 +45409,7 @@
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
     </row>
-    <row r="791" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>559</v>
       </c>
@@ -45433,7 +45456,7 @@
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
     </row>
-    <row r="792" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>561</v>
       </c>
@@ -45480,7 +45503,7 @@
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
     </row>
-    <row r="793" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>563</v>
       </c>
@@ -45527,7 +45550,7 @@
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
     </row>
-    <row r="794" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>565</v>
       </c>
@@ -45574,7 +45597,7 @@
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
     </row>
-    <row r="795" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>568</v>
       </c>
@@ -45621,7 +45644,7 @@
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
     </row>
-    <row r="796" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1473</v>
       </c>
@@ -45668,19 +45691,19 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
     </row>
-    <row r="797" spans="1:27" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A797" s="16" t="s">
+    <row r="797" spans="1:27" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="18" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="798" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="C798" s="1" t="s">
+      <c r="C798" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D798" s="1" t="s">
@@ -45722,14 +45745,14 @@
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
     </row>
-    <row r="799" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="C799" s="1" t="s">
+      <c r="C799" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D799" s="1" t="s">
@@ -45773,14 +45796,14 @@
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
     </row>
-    <row r="800" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="C800" s="1" t="s">
+      <c r="C800" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D800" s="1" t="s">
@@ -45824,14 +45847,14 @@
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
     </row>
-    <row r="801" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="C801" s="1" t="s">
+      <c r="C801" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D801" s="1" t="s">
@@ -45875,14 +45898,14 @@
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
     </row>
-    <row r="802" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="C802" s="1" t="s">
+      <c r="C802" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D802" s="1" t="s">
@@ -45926,7 +45949,7 @@
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
     </row>
-    <row r="803" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -45955,7 +45978,7 @@
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
     </row>
-    <row r="804" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -45984,7 +46007,7 @@
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
     </row>
-    <row r="805" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -46013,7 +46036,7 @@
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
     </row>
-    <row r="806" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -46042,7 +46065,7 @@
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
     </row>
-    <row r="807" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -46071,7 +46094,7 @@
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
     </row>
-    <row r="808" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -46100,7 +46123,7 @@
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
     </row>
-    <row r="809" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -46129,7 +46152,7 @@
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
     </row>
-    <row r="810" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -46158,7 +46181,7 @@
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
     </row>
-    <row r="811" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -46187,7 +46210,7 @@
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
     </row>
-    <row r="812" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -46216,7 +46239,7 @@
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
     </row>
-    <row r="813" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -46245,7 +46268,7 @@
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
     </row>
-    <row r="814" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -46274,7 +46297,7 @@
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
     </row>
-    <row r="815" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -46303,7 +46326,7 @@
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
     </row>
-    <row r="816" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -46332,7 +46355,7 @@
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
     </row>
-    <row r="817" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -46361,7 +46384,7 @@
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
     </row>
-    <row r="818" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -46390,7 +46413,7 @@
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
     </row>
-    <row r="819" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -46419,7 +46442,7 @@
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
     </row>
-    <row r="820" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -46448,7 +46471,7 @@
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
     </row>
-    <row r="821" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -46477,7 +46500,7 @@
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
     </row>
-    <row r="822" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -46506,7 +46529,7 @@
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
     </row>
-    <row r="823" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -46535,7 +46558,7 @@
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
     </row>
-    <row r="824" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -46564,7 +46587,7 @@
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
     </row>
-    <row r="825" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -46593,7 +46616,7 @@
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
     </row>
-    <row r="826" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -46622,7 +46645,7 @@
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
     </row>
-    <row r="827" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -46651,7 +46674,7 @@
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
     </row>
-    <row r="828" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -46680,7 +46703,7 @@
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
     </row>
-    <row r="829" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -46709,7 +46732,7 @@
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
     </row>
-    <row r="830" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -46738,7 +46761,7 @@
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
     </row>
-    <row r="831" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -46767,7 +46790,7 @@
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
     </row>
-    <row r="832" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -46796,7 +46819,7 @@
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
     </row>
-    <row r="833" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -46825,7 +46848,7 @@
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
     </row>
-    <row r="834" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -46854,7 +46877,7 @@
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
     </row>
-    <row r="835" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -46883,7 +46906,7 @@
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
     </row>
-    <row r="836" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -46912,7 +46935,7 @@
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
     </row>
-    <row r="837" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -46941,7 +46964,7 @@
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
     </row>
-    <row r="838" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -46970,7 +46993,7 @@
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
     </row>
-    <row r="839" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -46999,7 +47022,7 @@
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
     </row>
-    <row r="840" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -47028,7 +47051,7 @@
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
     </row>
-    <row r="841" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -47057,7 +47080,7 @@
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
     </row>
-    <row r="842" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -47086,7 +47109,7 @@
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
     </row>
-    <row r="843" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -47115,7 +47138,7 @@
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
     </row>
-    <row r="844" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -47144,7 +47167,7 @@
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
     </row>
-    <row r="845" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -47173,7 +47196,7 @@
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
     </row>
-    <row r="846" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -47202,7 +47225,7 @@
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
     </row>
-    <row r="847" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -47231,7 +47254,7 @@
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
     </row>
-    <row r="848" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -47260,7 +47283,7 @@
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
     </row>
-    <row r="849" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -47289,7 +47312,7 @@
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
     </row>
-    <row r="850" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -47318,7 +47341,7 @@
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
     </row>
-    <row r="851" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -47347,7 +47370,7 @@
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
     </row>
-    <row r="852" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -47376,7 +47399,7 @@
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
     </row>
-    <row r="853" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -47405,7 +47428,7 @@
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
     </row>
-    <row r="854" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -47434,7 +47457,7 @@
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
     </row>
-    <row r="855" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -47463,7 +47486,7 @@
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
     </row>
-    <row r="856" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -47492,7 +47515,7 @@
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
     </row>
-    <row r="857" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -47521,7 +47544,7 @@
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
     </row>
-    <row r="858" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -47550,7 +47573,7 @@
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
     </row>
-    <row r="859" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -47579,7 +47602,7 @@
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
     </row>
-    <row r="860" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -47608,7 +47631,7 @@
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
     </row>
-    <row r="861" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -47637,7 +47660,7 @@
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
     </row>
-    <row r="862" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -47666,7 +47689,7 @@
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
     </row>
-    <row r="863" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -47695,7 +47718,7 @@
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
     </row>
-    <row r="864" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -47724,7 +47747,7 @@
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
     </row>
-    <row r="865" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -47753,7 +47776,7 @@
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
     </row>
-    <row r="866" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -47782,7 +47805,7 @@
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
     </row>
-    <row r="867" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -47811,7 +47834,7 @@
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
     </row>
-    <row r="868" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -47840,7 +47863,7 @@
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
     </row>
-    <row r="869" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -47869,7 +47892,7 @@
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
     </row>
-    <row r="870" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -47898,7 +47921,7 @@
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
     </row>
-    <row r="871" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -47927,7 +47950,7 @@
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
     </row>
-    <row r="872" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -47956,7 +47979,7 @@
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
     </row>
-    <row r="873" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -47985,7 +48008,7 @@
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
     </row>
-    <row r="874" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -48014,7 +48037,7 @@
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
     </row>
-    <row r="875" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -48043,7 +48066,7 @@
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
     </row>
-    <row r="876" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -48072,7 +48095,7 @@
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
     </row>
-    <row r="877" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -48101,7 +48124,7 @@
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
     </row>
-    <row r="878" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -48130,7 +48153,7 @@
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
     </row>
-    <row r="879" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -48159,7 +48182,7 @@
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
     </row>
-    <row r="880" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -48188,7 +48211,7 @@
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
     </row>
-    <row r="881" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -48217,7 +48240,7 @@
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
     </row>
-    <row r="882" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -48246,7 +48269,7 @@
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
     </row>
-    <row r="883" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -48275,7 +48298,7 @@
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
     </row>
-    <row r="884" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -48304,7 +48327,7 @@
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
     </row>
-    <row r="885" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -48333,7 +48356,7 @@
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
     </row>
-    <row r="886" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -48362,7 +48385,7 @@
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
     </row>
-    <row r="887" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -48391,7 +48414,7 @@
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
     </row>
-    <row r="888" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -48420,7 +48443,7 @@
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
     </row>
-    <row r="889" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -48449,7 +48472,7 @@
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
     </row>
-    <row r="890" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -48478,7 +48501,7 @@
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
     </row>
-    <row r="891" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -48507,7 +48530,7 @@
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
     </row>
-    <row r="892" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -48536,7 +48559,7 @@
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
     </row>
-    <row r="893" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -48565,7 +48588,7 @@
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
     </row>
-    <row r="894" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -48594,7 +48617,7 @@
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
     </row>
-    <row r="895" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -48623,7 +48646,7 @@
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
     </row>
-    <row r="896" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -48652,7 +48675,7 @@
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
     </row>
-    <row r="897" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -48681,7 +48704,7 @@
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
     </row>
-    <row r="898" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -48710,7 +48733,7 @@
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
     </row>
-    <row r="899" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -48739,7 +48762,7 @@
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
     </row>
-    <row r="900" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -48768,7 +48791,7 @@
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
     </row>
-    <row r="901" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -48797,7 +48820,7 @@
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
     </row>
-    <row r="902" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -48826,7 +48849,7 @@
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
     </row>
-    <row r="903" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -48855,7 +48878,7 @@
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
     </row>
-    <row r="904" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -48884,7 +48907,7 @@
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
     </row>
-    <row r="905" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -48913,7 +48936,7 @@
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
     </row>
-    <row r="906" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -48942,7 +48965,7 @@
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
     </row>
-    <row r="907" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -48971,7 +48994,7 @@
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
     </row>
-    <row r="908" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -49000,7 +49023,7 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
     </row>
-    <row r="909" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -49029,7 +49052,7 @@
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
     </row>
-    <row r="910" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -49058,7 +49081,7 @@
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
     </row>
-    <row r="911" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -49087,7 +49110,7 @@
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
     </row>
-    <row r="912" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -49116,7 +49139,7 @@
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
     </row>
-    <row r="913" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -49145,7 +49168,7 @@
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
     </row>
-    <row r="914" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -49174,7 +49197,7 @@
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
     </row>
-    <row r="915" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -49203,7 +49226,7 @@
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
     </row>
-    <row r="916" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -49232,7 +49255,7 @@
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
     </row>
-    <row r="917" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -49261,7 +49284,7 @@
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
     </row>
-    <row r="918" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -49290,7 +49313,7 @@
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
     </row>
-    <row r="919" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -49319,7 +49342,7 @@
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
     </row>
-    <row r="920" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -49348,7 +49371,7 @@
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
     </row>
-    <row r="921" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -49377,7 +49400,7 @@
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
     </row>
-    <row r="922" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -49406,7 +49429,7 @@
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
     </row>
-    <row r="923" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -49435,7 +49458,7 @@
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
     </row>
-    <row r="924" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -49464,7 +49487,7 @@
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
     </row>
-    <row r="925" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -49493,7 +49516,7 @@
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
     </row>
-    <row r="926" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -49522,7 +49545,7 @@
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
     </row>
-    <row r="927" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -49551,7 +49574,7 @@
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
     </row>
-    <row r="928" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -49580,7 +49603,7 @@
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
     </row>
-    <row r="929" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -49609,7 +49632,7 @@
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
     </row>
-    <row r="930" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -49638,7 +49661,7 @@
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
     </row>
-    <row r="931" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -49667,7 +49690,7 @@
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
     </row>
-    <row r="932" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -49696,7 +49719,7 @@
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
     </row>
-    <row r="933" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -49725,7 +49748,7 @@
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
     </row>
-    <row r="934" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -49754,7 +49777,7 @@
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
     </row>
-    <row r="935" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -49783,7 +49806,7 @@
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
     </row>
-    <row r="936" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -49812,7 +49835,7 @@
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
     </row>
-    <row r="937" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -49841,7 +49864,7 @@
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
     </row>
-    <row r="938" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -49870,7 +49893,7 @@
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
     </row>
-    <row r="939" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -49899,7 +49922,7 @@
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
     </row>
-    <row r="940" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -49928,7 +49951,7 @@
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
     </row>
-    <row r="941" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -49957,7 +49980,7 @@
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
     </row>
-    <row r="942" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -49986,7 +50009,7 @@
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
     </row>
-    <row r="943" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -50015,7 +50038,7 @@
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
     </row>
-    <row r="944" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -50044,7 +50067,7 @@
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
     </row>
-    <row r="945" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -50073,7 +50096,7 @@
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
     </row>
-    <row r="946" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -50102,7 +50125,7 @@
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
     </row>
-    <row r="947" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -50131,7 +50154,7 @@
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
     </row>
-    <row r="948" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -50160,7 +50183,7 @@
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
     </row>
-    <row r="949" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -50189,7 +50212,7 @@
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
     </row>
-    <row r="950" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -50218,7 +50241,7 @@
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
     </row>
-    <row r="951" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -50247,7 +50270,7 @@
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
     </row>
-    <row r="952" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -50276,7 +50299,7 @@
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
     </row>
-    <row r="953" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -50305,7 +50328,7 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
     </row>
-    <row r="954" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -50334,7 +50357,7 @@
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
     </row>
-    <row r="955" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -50363,7 +50386,7 @@
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
     </row>
-    <row r="956" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -50392,7 +50415,7 @@
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
     </row>
-    <row r="957" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -50421,7 +50444,7 @@
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
     </row>
-    <row r="958" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -50450,7 +50473,7 @@
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
     </row>
-    <row r="959" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -50479,7 +50502,7 @@
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
     </row>
-    <row r="960" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -50508,7 +50531,7 @@
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
     </row>
-    <row r="961" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -50537,7 +50560,7 @@
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
     </row>
-    <row r="962" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -50566,7 +50589,7 @@
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
     </row>
-    <row r="963" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -50595,7 +50618,7 @@
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
     </row>
-    <row r="964" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -50624,7 +50647,7 @@
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
     </row>
-    <row r="965" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -50653,7 +50676,7 @@
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
     </row>
-    <row r="966" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -50682,7 +50705,7 @@
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
     </row>
-    <row r="967" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -50711,7 +50734,7 @@
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
     </row>
-    <row r="968" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -50740,7 +50763,7 @@
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
     </row>
-    <row r="969" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -50769,7 +50792,7 @@
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
     </row>
-    <row r="970" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -50798,7 +50821,7 @@
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
     </row>
-    <row r="971" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -50827,7 +50850,7 @@
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
     </row>
-    <row r="972" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -50856,7 +50879,7 @@
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
     </row>
-    <row r="973" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -50885,7 +50908,7 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
     </row>
-    <row r="974" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -50914,7 +50937,7 @@
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
     </row>
-    <row r="975" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -50943,7 +50966,7 @@
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
     </row>
-    <row r="976" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -50972,7 +50995,7 @@
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
     </row>
-    <row r="977" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -51001,7 +51024,7 @@
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
     </row>
-    <row r="978" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -51030,7 +51053,7 @@
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
     </row>
-    <row r="979" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -51059,7 +51082,7 @@
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
     </row>
-    <row r="980" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -51088,7 +51111,7 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
     </row>
-    <row r="981" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -51117,7 +51140,7 @@
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
     </row>
-    <row r="982" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -51146,7 +51169,7 @@
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
     </row>
-    <row r="983" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -51175,7 +51198,7 @@
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
     </row>
-    <row r="984" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -51204,7 +51227,7 @@
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
     </row>
-    <row r="985" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -51233,7 +51256,7 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
     </row>
-    <row r="986" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -51262,7 +51285,7 @@
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
     </row>
-    <row r="987" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -51291,7 +51314,7 @@
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
     </row>
-    <row r="988" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -51320,7 +51343,7 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
     </row>
-    <row r="989" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -51349,7 +51372,7 @@
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
     </row>
-    <row r="990" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -51378,7 +51401,7 @@
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
     </row>
-    <row r="991" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -51407,7 +51430,7 @@
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
     </row>
-    <row r="992" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -51436,7 +51459,7 @@
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
     </row>
-    <row r="993" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -51465,7 +51488,7 @@
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
     </row>
-    <row r="994" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -51494,7 +51517,7 @@
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
     </row>
-    <row r="995" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -51523,7 +51546,7 @@
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
     </row>
-    <row r="996" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -51552,7 +51575,7 @@
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
     </row>
-    <row r="997" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -51581,7 +51604,7 @@
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
     </row>
-    <row r="998" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -51610,7 +51633,7 @@
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
     </row>
-    <row r="999" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -51639,7 +51662,7 @@
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
     </row>
-    <row r="1000" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -51668,7 +51691,7 @@
       <c r="Z1000" s="1"/>
       <c r="AA1000" s="1"/>
     </row>
-    <row r="1001" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -51697,7 +51720,7 @@
       <c r="Z1001" s="1"/>
       <c r="AA1001" s="1"/>
     </row>
-    <row r="1002" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>
@@ -51726,7 +51749,7 @@
       <c r="Z1002" s="1"/>
       <c r="AA1002" s="1"/>
     </row>
-    <row r="1003" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="1"/>
@@ -51755,7 +51778,7 @@
       <c r="Z1003" s="1"/>
       <c r="AA1003" s="1"/>
     </row>
-    <row r="1004" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
@@ -51784,7 +51807,7 @@
       <c r="Z1004" s="1"/>
       <c r="AA1004" s="1"/>
     </row>
-    <row r="1005" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
@@ -51813,7 +51836,7 @@
       <c r="Z1005" s="1"/>
       <c r="AA1005" s="1"/>
     </row>
-    <row r="1006" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
@@ -51842,7 +51865,7 @@
       <c r="Z1006" s="1"/>
       <c r="AA1006" s="1"/>
     </row>
-    <row r="1007" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
       <c r="B1007" s="1"/>
       <c r="C1007" s="1"/>
@@ -51871,7 +51894,7 @@
       <c r="Z1007" s="1"/>
       <c r="AA1007" s="1"/>
     </row>
-    <row r="1008" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1"/>
       <c r="B1008" s="1"/>
       <c r="C1008" s="1"/>
@@ -51900,7 +51923,7 @@
       <c r="Z1008" s="1"/>
       <c r="AA1008" s="1"/>
     </row>
-    <row r="1009" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1"/>
       <c r="B1009" s="1"/>
       <c r="C1009" s="1"/>
@@ -51929,7 +51952,7 @@
       <c r="Z1009" s="1"/>
       <c r="AA1009" s="1"/>
     </row>
-    <row r="1010" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1"/>
       <c r="B1010" s="1"/>
       <c r="C1010" s="1"/>
@@ -51958,7 +51981,7 @@
       <c r="Z1010" s="1"/>
       <c r="AA1010" s="1"/>
     </row>
-    <row r="1011" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1"/>
       <c r="B1011" s="1"/>
       <c r="C1011" s="1"/>
@@ -51987,7 +52010,7 @@
       <c r="Z1011" s="1"/>
       <c r="AA1011" s="1"/>
     </row>
-    <row r="1012" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1"/>
       <c r="B1012" s="1"/>
       <c r="C1012" s="1"/>
@@ -52016,7 +52039,7 @@
       <c r="Z1012" s="1"/>
       <c r="AA1012" s="1"/>
     </row>
-    <row r="1013" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1"/>
       <c r="B1013" s="1"/>
       <c r="C1013" s="1"/>
@@ -52045,7 +52068,7 @@
       <c r="Z1013" s="1"/>
       <c r="AA1013" s="1"/>
     </row>
-    <row r="1014" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
@@ -52076,13 +52099,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A797:XFD797"/>
     <mergeCell ref="A484:XFD484"/>
@@ -52099,6 +52115,13 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codebook/smarvus_codebook_250124.xlsx
+++ b/codebook/smarvus_codebook_250124.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarst\Documents\GitHub\2301\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1E9F45-CB75-461D-A8AA-041FDDA51FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E885AE8-9E19-4B5C-B47C-4E752DD832AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6730" yWindow="0" windowWidth="19320" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29340" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -6732,7 +6732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6775,6 +6775,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6788,7 +6794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6816,24 +6822,26 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7071,8 +7079,11 @@
   </sheetPr>
   <dimension ref="A1:AA1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B490" sqref="B490"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7087,52 +7098,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2115</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="21" t="s">
         <v>1868</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="23" t="s">
         <v>1869</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="1"/>
@@ -7153,17 +7164,17 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -7181,13 +7192,13 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:27" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7195,7 +7206,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7497,8 +7508,8 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7706,8 +7717,8 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8101,8 +8112,8 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8251,8 +8262,8 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8305,8 +8316,8 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9493,7 +9504,7 @@
       <c r="C56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="25" t="s">
         <v>1907</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -11737,7 +11748,7 @@
       <c r="C100" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="25" t="s">
         <v>1907</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -14020,7 +14031,7 @@
       <c r="C146" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="25" t="s">
         <v>1907</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -15652,7 +15663,7 @@
       <c r="C180" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="25" t="s">
         <v>1907</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -17620,7 +17631,7 @@
       <c r="C221" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="25" t="s">
         <v>1907</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -18628,7 +18639,7 @@
       <c r="C242" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="25" t="s">
         <v>1907</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -19563,8 +19574,8 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="19" t="s">
+    <row r="261" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="20" t="s">
         <v>593</v>
       </c>
     </row>
@@ -29513,8 +29524,8 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="19" t="s">
+    <row r="457" spans="1:27" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="20" t="s">
         <v>842</v>
       </c>
     </row>
@@ -29525,7 +29536,7 @@
       <c r="B458" t="s">
         <v>2078</v>
       </c>
-      <c r="C458" s="23" t="s">
+      <c r="C458" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D458" s="1" t="s">
@@ -29572,7 +29583,7 @@
       <c r="B459" t="s">
         <v>2079</v>
       </c>
-      <c r="C459" s="23" t="s">
+      <c r="C459" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D459" s="1" t="s">
@@ -29621,7 +29632,7 @@
       <c r="B460" t="s">
         <v>2080</v>
       </c>
-      <c r="C460" s="23" t="s">
+      <c r="C460" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D460" s="1" t="s">
@@ -29670,7 +29681,7 @@
       <c r="B461" t="s">
         <v>2081</v>
       </c>
-      <c r="C461" s="23" t="s">
+      <c r="C461" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D461" s="1" t="s">
@@ -29719,7 +29730,7 @@
       <c r="B462" t="s">
         <v>2082</v>
       </c>
-      <c r="C462" s="23" t="s">
+      <c r="C462" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D462" s="1" t="s">
@@ -29768,7 +29779,7 @@
       <c r="B463" t="s">
         <v>2083</v>
       </c>
-      <c r="C463" s="23" t="s">
+      <c r="C463" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D463" s="1" t="s">
@@ -29817,7 +29828,7 @@
       <c r="B464" t="s">
         <v>2084</v>
       </c>
-      <c r="C464" s="23" t="s">
+      <c r="C464" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D464" s="1" t="s">
@@ -29866,7 +29877,7 @@
       <c r="B465" t="s">
         <v>2085</v>
       </c>
-      <c r="C465" s="23" t="s">
+      <c r="C465" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D465" s="1" t="s">
@@ -29915,7 +29926,7 @@
       <c r="B466" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="C466" s="23" t="s">
+      <c r="C466" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D466" s="1" t="s">
@@ -29964,7 +29975,7 @@
       <c r="B467" t="s">
         <v>861</v>
       </c>
-      <c r="C467" s="23" t="s">
+      <c r="C467" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D467" s="1" t="s">
@@ -30013,7 +30024,7 @@
       <c r="B468" t="s">
         <v>864</v>
       </c>
-      <c r="C468" s="23" t="s">
+      <c r="C468" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D468" s="1" t="s">
@@ -30062,7 +30073,7 @@
       <c r="B469" t="s">
         <v>867</v>
       </c>
-      <c r="C469" s="23" t="s">
+      <c r="C469" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D469" s="1" t="s">
@@ -30111,7 +30122,7 @@
       <c r="B470" t="s">
         <v>870</v>
       </c>
-      <c r="C470" s="23" t="s">
+      <c r="C470" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D470" s="1" t="s">
@@ -30160,7 +30171,7 @@
       <c r="B471" t="s">
         <v>873</v>
       </c>
-      <c r="C471" s="23" t="s">
+      <c r="C471" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D471" s="1" t="s">
@@ -30209,7 +30220,7 @@
       <c r="B472" t="s">
         <v>875</v>
       </c>
-      <c r="C472" s="23" t="s">
+      <c r="C472" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D472" s="1" t="s">
@@ -30258,7 +30269,7 @@
       <c r="B473" s="4" t="s">
         <v>2088</v>
       </c>
-      <c r="C473" s="23" t="s">
+      <c r="C473" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D473" s="1" t="s">
@@ -30307,7 +30318,7 @@
       <c r="B474" s="4" t="s">
         <v>2090</v>
       </c>
-      <c r="C474" s="23" t="s">
+      <c r="C474" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D474" s="1" t="s">
@@ -30356,7 +30367,7 @@
       <c r="B475" s="4" t="s">
         <v>2096</v>
       </c>
-      <c r="C475" s="23" t="s">
+      <c r="C475" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D475" s="1" t="s">
@@ -30405,7 +30416,7 @@
       <c r="B476" t="s">
         <v>2097</v>
       </c>
-      <c r="C476" s="23" t="s">
+      <c r="C476" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D476" s="1" t="s">
@@ -30454,7 +30465,7 @@
       <c r="B477" t="s">
         <v>2098</v>
       </c>
-      <c r="C477" s="23" t="s">
+      <c r="C477" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D477" s="1" t="s">
@@ -30503,7 +30514,7 @@
       <c r="B478" t="s">
         <v>2099</v>
       </c>
-      <c r="C478" s="23" t="s">
+      <c r="C478" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D478" s="1" t="s">
@@ -30552,7 +30563,7 @@
       <c r="B479" t="s">
         <v>2100</v>
       </c>
-      <c r="C479" s="23" t="s">
+      <c r="C479" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D479" s="1" t="s">
@@ -30601,7 +30612,7 @@
       <c r="B480" t="s">
         <v>2101</v>
       </c>
-      <c r="C480" s="23" t="s">
+      <c r="C480" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D480" s="1" t="s">
@@ -30650,7 +30661,7 @@
       <c r="B481" t="s">
         <v>2102</v>
       </c>
-      <c r="C481" s="23" t="s">
+      <c r="C481" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D481" s="1" t="s">
@@ -30699,7 +30710,7 @@
       <c r="B482" t="s">
         <v>2110</v>
       </c>
-      <c r="C482" s="23" t="s">
+      <c r="C482" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D482" s="1" t="s">
@@ -30748,7 +30759,7 @@
       <c r="B483" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="C483" s="23" t="s">
+      <c r="C483" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D483" s="1" t="s">
@@ -30792,8 +30803,8 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="18" t="s">
+    <row r="484" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="19" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -31208,7 +31219,7 @@
       <c r="F493" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G493" s="24" t="s">
+      <c r="G493" s="17" t="s">
         <v>1599</v>
       </c>
       <c r="H493" s="1" t="s">
@@ -45691,8 +45702,8 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
     </row>
-    <row r="797" spans="1:27" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A797" s="18" t="s">
+    <row r="797" spans="1:27" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="19" t="s">
         <v>2033</v>
       </c>
     </row>
@@ -45703,7 +45714,7 @@
       <c r="B798" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="C798" s="23" t="s">
+      <c r="C798" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D798" s="1" t="s">
@@ -45752,7 +45763,7 @@
       <c r="B799" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="C799" s="23" t="s">
+      <c r="C799" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D799" s="1" t="s">
@@ -45803,7 +45814,7 @@
       <c r="B800" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="C800" s="23" t="s">
+      <c r="C800" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D800" s="1" t="s">
@@ -45854,7 +45865,7 @@
       <c r="B801" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="C801" s="23" t="s">
+      <c r="C801" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D801" s="1" t="s">
@@ -45905,7 +45916,7 @@
       <c r="B802" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="C802" s="23" t="s">
+      <c r="C802" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D802" s="1" t="s">
@@ -52098,7 +52109,14 @@
       <c r="AA1014" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A797:XFD797"/>
     <mergeCell ref="A484:XFD484"/>
@@ -52110,18 +52128,10 @@
     <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A17:XFD17"/>
     <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A4:XFD4"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/codebook/smarvus_codebook_250124.xlsx
+++ b/codebook/smarvus_codebook_250124.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarst\Documents\GitHub\2301\codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19F21B9-8EDE-4D17-97F4-DD7C6D20C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A25AC-1F18-4CE8-AF23-5AFE0EB549B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11985" yWindow="0" windowWidth="25245" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6620,7 +6620,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6753,6 +6753,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -6840,7 +6848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6902,6 +6910,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7140,10 +7153,10 @@
   <dimension ref="A1:AA1014"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B475" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B453" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C501" sqref="C501"/>
+      <selection pane="bottomRight" activeCell="H466" sqref="B466:H466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29981,29 +29994,29 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B466" s="34" t="s">
+      <c r="B466" s="37" t="s">
         <v>859</v>
       </c>
-      <c r="C466" s="36" t="s">
+      <c r="C466" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D466" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E466" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F466" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G466" s="35" t="s">
+      <c r="D466" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E466" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F466" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G466" s="39" t="s">
         <v>2032</v>
       </c>
-      <c r="H466" s="34" t="s">
+      <c r="H466" s="37" t="s">
         <v>2044</v>
       </c>
       <c r="I466" s="1" t="s">
